--- a/MARIO_Extensions&Aggregations/exiobase_aggregated.xlsx
+++ b/MARIO_Extensions&Aggregations/exiobase_aggregated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive - Glenn Aguilar Hernandez@surfdrive.surf.nl3\UNICA_project\WP-1 Identification\T&amp;S_framework\Journal of CE\supplementary_information_v2.0\MARIO_Extensions&amp;Aggregations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEAB615-F738-4A9E-AEE4-D4ECCEDE78E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2E0862-20DF-49A1-B769-481A9C6D1D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9760,8 +9760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10872,7 +10872,7 @@
         <v>931</v>
       </c>
       <c r="B139" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
